--- a/results/I3_N5_M2_T15_C150_DepCentral_s0_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1835.909519245413</v>
+        <v>167.3630522705333</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2680001258850098</v>
+        <v>0.06200003623962402</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.82147747210148</v>
+        <v>19.36305227053332</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.46290845299062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.420950226667207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1386.269999999635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>434.86</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -758,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.39403321723001</v>
+        <v>11.43123270582124</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.122498527679113</v>
+        <v>9.051487304160846</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.499892058418185</v>
+        <v>11.42888083489992</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.18449368032029</v>
+        <v>14.16274257244262</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>231.3589999999149</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>119.6040000000176</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>76.33399999998977</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>156.7779999999492</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>207.2680000000424</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>207.268000000054</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>231.3589999999104</v>
+        <v>126.8</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>57.26800000005338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>81.35899999991008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -1231,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>20.667</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>22.819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1267,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1292,39 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
